--- a/Coupes_dettes/Data/gaillard_cut_data.xlsx
+++ b/Coupes_dettes/Data/gaillard_cut_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renard/Documents/obsidian/etudes/MAPEC_Sem3_UB/Gaillard Report Paper/plots/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renard/Documents/etudes/UNIGE/Article-rapport-Gaillard/Coupes_dettes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE3EC3-DEC1-B64B-98E5-BAA2D3D2DA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A1CFA-A64A-FF4F-9D3C-4802060E7036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="500" windowWidth="35740" windowHeight="25100" xr2:uid="{6C14ADC4-D0ED-AA47-BFD5-B8931747BC99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="205">
   <si>
     <r>
       <rPr>
@@ -565,9 +565,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Category (EN)</t>
-  </si>
-  <si>
     <t>Measure (FR)</t>
   </si>
   <si>
@@ -923,6 +920,48 @@
   </si>
   <si>
     <t>Péréquation financière : réduction de la compensation des charges excessives dues à des facteurs socio-démographiques et création d’un instrument de compensation temporaire des cas de rigueur</t>
+  </si>
+  <si>
+    <t>Coopération internationale/Aide humanitaire</t>
+  </si>
+  <si>
+    <t>Défense</t>
+  </si>
+  <si>
+    <t>Police/Judiciaire</t>
+  </si>
+  <si>
+    <t>Éducation/Recherche</t>
+  </si>
+  <si>
+    <t>Environement/Climat</t>
+  </si>
+  <si>
+    <t>Tourisme</t>
+  </si>
+  <si>
+    <t>Santé/Sécurité</t>
+  </si>
+  <si>
+    <t>Dépenses propres du gouvernement</t>
+  </si>
+  <si>
+    <t>Presse</t>
+  </si>
+  <si>
+    <t>Service Civil</t>
+  </si>
+  <si>
+    <t>Asyle</t>
+  </si>
+  <si>
+    <t>Taxes/Redistribution régionnale/Subventions</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Categorie</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,6 +1217,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1512,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA37D3A0-6009-114A-AAFB-B7883373660E}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1524,36 +1566,39 @@
     <col min="2" max="2" width="96.33203125" customWidth="1"/>
     <col min="3" max="3" width="103.5" customWidth="1"/>
     <col min="4" max="4" width="96.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="5" max="6" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>71</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="1">
         <v>2027</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2028</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>2029</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19" customHeight="1">
+    <row r="2" spans="1:9" ht="19" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1561,25 +1606,28 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="2">
         <v>107</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>167</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19" customHeight="1">
+    <row r="3" spans="1:9" ht="19" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1587,16 +1635,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2">
-        <v>6</v>
+      <c r="F3" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="G3" s="2">
         <v>6</v>
@@ -1604,8 +1652,11 @@
       <c r="H3" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="19" customHeight="1">
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1613,16 +1664,16 @@
         <v>44</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5">
-        <v>1</v>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -1630,8 +1681,11 @@
       <c r="H4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19" customHeight="1">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1639,16 +1693,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
+      <c r="F5" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1656,8 +1710,11 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="19" customHeight="1">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1665,16 +1722,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="2">
-        <v>22</v>
+      <c r="F6" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G6" s="2">
         <v>22</v>
@@ -1682,8 +1739,11 @@
       <c r="H6" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19" customHeight="1">
+      <c r="I6" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1691,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2">
-        <v>78</v>
+      <c r="F7" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G7" s="2">
         <v>78</v>
@@ -1708,8 +1768,11 @@
       <c r="H7" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19" customHeight="1">
+      <c r="I7" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1717,25 +1780,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="2">
         <v>131</v>
-      </c>
-      <c r="G8" s="2">
-        <v>139</v>
       </c>
       <c r="H8" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="19" customHeight="1">
+      <c r="I8" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1743,16 +1809,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="2">
-        <v>26</v>
+      <c r="F9" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G9" s="2">
         <v>26</v>
@@ -1760,8 +1826,11 @@
       <c r="H9" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="19" customHeight="1">
+      <c r="I9" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1769,25 +1838,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19" customHeight="1">
+    <row r="11" spans="1:9" ht="19" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1795,25 +1867,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2">
         <v>17</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>18</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19" customHeight="1">
+    <row r="12" spans="1:9" ht="19" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1821,25 +1896,28 @@
         <v>48</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="5">
         <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19" customHeight="1">
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1847,25 +1925,28 @@
         <v>9</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2">
         <v>17</v>
-      </c>
-      <c r="G13" s="2">
-        <v>18</v>
       </c>
       <c r="H13" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="19" customHeight="1">
+      <c r="I13" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1873,16 +1954,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="2">
-        <v>100</v>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G14" s="2">
         <v>100</v>
@@ -1890,8 +1971,11 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="19" customHeight="1">
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1899,25 +1983,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2">
         <v>58</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>59</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19" customHeight="1">
+    <row r="16" spans="1:9" ht="19" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1925,25 +2012,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="2">
         <v>47</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>49</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19" customHeight="1">
+    <row r="17" spans="1:9" ht="19" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1951,16 +2041,16 @@
         <v>51</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2">
-        <v>11</v>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G17" s="2">
         <v>11</v>
@@ -1968,8 +2058,11 @@
       <c r="H17" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="19" customHeight="1">
+      <c r="I17" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1977,16 +2070,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="2">
-        <v>11</v>
+      <c r="F18" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G18" s="2">
         <v>11</v>
@@ -1994,8 +2087,11 @@
       <c r="H18" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="19" customHeight="1">
+      <c r="I18" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2003,25 +2099,28 @@
         <v>14</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="2">
         <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
       </c>
       <c r="H19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="19" customHeight="1">
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2029,16 +2128,16 @@
         <v>54</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
+      <c r="F20" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -2046,8 +2145,11 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="19" customHeight="1">
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2055,16 +2157,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="2">
-        <v>20</v>
+      <c r="F21" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="G21" s="2">
         <v>20</v>
@@ -2072,8 +2174,11 @@
       <c r="H21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="19" customHeight="1">
+      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2081,25 +2186,28 @@
         <v>55</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="6">
         <v>26</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <v>25</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19" customHeight="1">
+    <row r="23" spans="1:9" ht="19" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2107,25 +2215,28 @@
         <v>16</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="2">
+        <v>189</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="2">
         <v>200</v>
-      </c>
-      <c r="G23" s="2">
-        <v>300</v>
       </c>
       <c r="H23" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="19" customHeight="1">
+      <c r="I23" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2133,16 +2244,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="2">
-        <v>2</v>
+      <c r="F24" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -2150,8 +2261,11 @@
       <c r="H24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="19" customHeight="1">
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2159,16 +2273,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="2">
-        <v>19</v>
+      <c r="F25" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G25" s="2">
         <v>19</v>
@@ -2176,8 +2290,11 @@
       <c r="H25" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="19" customHeight="1">
+      <c r="I25" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2185,16 +2302,16 @@
         <v>56</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="5">
-        <v>3</v>
+      <c r="F26" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="G26" s="5">
         <v>3</v>
@@ -2202,8 +2319,11 @@
       <c r="H26" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="19" customHeight="1">
+      <c r="I26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2211,16 +2331,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="2">
-        <v>120</v>
+      <c r="F27" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G27" s="2">
         <v>120</v>
@@ -2228,8 +2348,11 @@
       <c r="H27" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="19" customHeight="1">
+      <c r="I27" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2237,25 +2360,28 @@
         <v>20</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="2">
         <v>28</v>
-      </c>
-      <c r="G28" s="2">
-        <v>30</v>
       </c>
       <c r="H28" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="19" customHeight="1">
+      <c r="I28" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2263,25 +2389,28 @@
         <v>21</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="2">
         <v>32</v>
-      </c>
-      <c r="G29" s="2">
-        <v>33</v>
       </c>
       <c r="H29" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="19" customHeight="1">
+      <c r="I29" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2289,25 +2418,28 @@
         <v>22</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="2">
         <v>19</v>
-      </c>
-      <c r="G30" s="2">
-        <v>20</v>
       </c>
       <c r="H30" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="19" customHeight="1">
+      <c r="I30" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2315,16 +2447,16 @@
         <v>57</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="5">
-        <v>10</v>
+      <c r="F31" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G31" s="5">
         <v>10</v>
@@ -2332,8 +2464,11 @@
       <c r="H31" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="19" customHeight="1">
+      <c r="I31" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2341,16 +2476,16 @@
         <v>23</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="2">
-        <v>1</v>
+      <c r="F32" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2358,8 +2493,11 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="19" customHeight="1">
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="19" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2367,16 +2505,16 @@
         <v>58</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="5">
-        <v>1</v>
+      <c r="F33" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -2384,8 +2522,11 @@
       <c r="H33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="19" customHeight="1">
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="19" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2393,16 +2534,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="2">
-        <v>20</v>
+      <c r="F34" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G34" s="2">
         <v>20</v>
@@ -2410,8 +2551,11 @@
       <c r="H34" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1">
+      <c r="I34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2419,16 +2563,16 @@
         <v>61</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="2">
-        <v>1</v>
+      <c r="F35" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -2436,8 +2580,11 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="19" customHeight="1">
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2445,16 +2592,16 @@
         <v>60</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="2">
-        <v>1</v>
+      <c r="F36" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -2462,8 +2609,11 @@
       <c r="H36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="19" customHeight="1">
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="19" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2471,25 +2621,28 @@
         <v>62</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2">
         <v>48</v>
-      </c>
-      <c r="G37" s="2">
-        <v>49</v>
       </c>
       <c r="H37" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="19" customHeight="1">
+      <c r="I37" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="19" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2497,25 +2650,28 @@
         <v>25</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" s="2">
         <v>243</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>388</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19" customHeight="1">
+    <row r="39" spans="1:9" ht="19" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2523,16 +2679,16 @@
         <v>26</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="7">
-        <v>0.3</v>
+      <c r="F39" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G39" s="7">
         <v>0.3</v>
@@ -2540,8 +2696,11 @@
       <c r="H39" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="19" customHeight="1">
+      <c r="I39" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2549,16 +2708,16 @@
         <v>27</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="2">
-        <v>200</v>
+      <c r="F40" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G40" s="2">
         <v>200</v>
@@ -2566,8 +2725,11 @@
       <c r="H40" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="19" customHeight="1">
+      <c r="I40" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2575,16 +2737,16 @@
         <v>28</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="2">
-        <v>20</v>
+      <c r="F41" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G41" s="2">
         <v>20</v>
@@ -2592,8 +2754,11 @@
       <c r="H41" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="19" customHeight="1">
+      <c r="I41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="19" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2601,16 +2766,16 @@
         <v>64</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="5">
-        <v>56</v>
+      <c r="F42" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G42" s="5">
         <v>56</v>
@@ -2618,8 +2783,11 @@
       <c r="H42" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="19" customHeight="1">
+      <c r="I42" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2627,16 +2795,16 @@
         <v>29</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="2">
-        <v>2</v>
+      <c r="F43" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -2644,8 +2812,11 @@
       <c r="H43" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="19" customHeight="1">
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2653,25 +2824,28 @@
         <v>30</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2">
         <v>32</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>31</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19" customHeight="1">
+    <row r="45" spans="1:9" ht="19" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2679,16 +2853,16 @@
         <v>65</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="5">
-        <v>25</v>
+      <c r="F45" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G45" s="5">
         <v>25</v>
@@ -2696,8 +2870,11 @@
       <c r="H45" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="19" customHeight="1">
+      <c r="I45" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2705,25 +2882,28 @@
         <v>31</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="2">
         <v>6</v>
-      </c>
-      <c r="G46" s="2">
-        <v>7</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="19" customHeight="1">
+      <c r="I46" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2731,16 +2911,16 @@
         <v>32</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="2">
-        <v>5</v>
+      <c r="F47" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G47" s="2">
         <v>5</v>
@@ -2748,8 +2928,11 @@
       <c r="H47" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="19" customHeight="1">
+      <c r="I47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2757,16 +2940,16 @@
         <v>33</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="2">
-        <v>6</v>
+      <c r="F48" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G48" s="2">
         <v>6</v>
@@ -2774,8 +2957,11 @@
       <c r="H48" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="19" customHeight="1">
+      <c r="I48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2783,25 +2969,28 @@
         <v>34</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="2">
-        <v>5</v>
+      <c r="F49" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
       </c>
       <c r="H49" s="2">
+        <v>5</v>
+      </c>
+      <c r="I49" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="19" customHeight="1">
+    <row r="50" spans="1:10" ht="19" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2809,16 +2998,16 @@
         <v>35</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="2">
-        <v>2</v>
+      <c r="F50" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -2826,8 +3015,11 @@
       <c r="H50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="19" customHeight="1">
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2835,16 +3027,16 @@
         <v>36</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="2">
-        <v>127</v>
+      <c r="F51" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G51" s="2">
         <v>127</v>
@@ -2852,8 +3044,11 @@
       <c r="H51" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="19" customHeight="1">
+      <c r="I51" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2861,25 +3056,28 @@
         <v>37</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="9">
         <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>65</v>
       </c>
       <c r="H52" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="19" customHeight="1">
+      <c r="I52" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2887,25 +3085,28 @@
         <v>38</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="2">
         <v>372</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>389</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="19" customHeight="1">
+    <row r="54" spans="1:10" ht="19" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2913,25 +3114,28 @@
         <v>39</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="2">
         <v>19</v>
-      </c>
-      <c r="G54" s="2">
-        <v>24</v>
       </c>
       <c r="H54" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="19" customHeight="1">
+      <c r="I54" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2939,43 +3143,46 @@
         <v>66</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" s="5">
         <v>13</v>
       </c>
-      <c r="G55" s="11">
+      <c r="H55" s="11">
         <v>26</v>
       </c>
-      <c r="H55" s="12">
+      <c r="I55" s="12">
         <v>26</v>
       </c>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" ht="19" customHeight="1">
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" ht="19" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="6">
-        <v>67</v>
+      <c r="F56" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="G56" s="6">
         <v>67</v>
@@ -2983,8 +3190,11 @@
       <c r="H56" s="6">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="19" customHeight="1">
+      <c r="I56" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19" customHeight="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2992,25 +3202,28 @@
         <v>40</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="9">
         <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>190</v>
       </c>
       <c r="H57" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="19" customHeight="1">
+      <c r="I57" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3018,16 +3231,16 @@
         <v>41</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="F58" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -3035,8 +3248,11 @@
       <c r="H58" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="17">
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="17">
       <c r="A59" s="8"/>
       <c r="B59" s="20" t="s">
         <v>42</v>
@@ -3044,26 +3260,27 @@
       <c r="C59" s="26"/>
       <c r="D59" s="24"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="15">
-        <f>SUM(F2:F58)</f>
+      <c r="F59" s="27"/>
+      <c r="G59" s="15">
+        <f>SUM(G2:G58)</f>
         <v>2394.3000000000002</v>
       </c>
-      <c r="G59" s="15">
-        <f t="shared" ref="G59:H59" si="0">SUM(G2:G58)</f>
+      <c r="H59" s="15">
+        <f t="shared" ref="H59:I59" si="0">SUM(H2:H58)</f>
         <v>3012.3</v>
       </c>
-      <c r="H59" s="15">
+      <c r="I59" s="15">
         <f t="shared" si="0"/>
         <v>3138.3</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="F60" s="16"/>
+    <row r="60" spans="1:10">
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="F63" s="14"/>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="G63" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
